--- a/giant_se/rsc/TABLE정보.xlsx
+++ b/giant_se/rsc/TABLE정보.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="101">
   <si>
     <t>컬럼명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>발급암호종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>고유 아이디</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rand_number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -353,38 +345,70 @@
     <t>factory_key_id</t>
   </si>
   <si>
+    <t>auth_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPANY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmp_uid</t>
+  </si>
+  <si>
+    <t>cmp_uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>chp_uid</t>
+  </si>
+  <si>
+    <t>PRI</t>
+  </si>
+  <si>
+    <t>random</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>factory_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FACTORY_KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>varchar(4)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>auth_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COMPANY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cmp_uid</t>
-  </si>
-  <si>
-    <t>cmp_uid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고유 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
+    <t>ftk_uid</t>
+  </si>
+  <si>
+    <t>ftk_uid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,7 +521,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -507,14 +531,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -522,23 +540,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -546,20 +552,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -844,19 +856,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:G44"/>
+  <dimension ref="B2:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="16" customWidth="1"/>
     <col min="3" max="3" width="16.875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1" outlineLevel="1"/>
     <col min="5" max="5" width="29" customWidth="1" outlineLevel="2"/>
@@ -865,36 +877,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>19</v>
+      <c r="G2" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="17"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="18" t="s">
-        <v>31</v>
+      <c r="B4" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
@@ -903,117 +915,115 @@
         <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="11"/>
+      <c r="C5" s="2" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="18"/>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="11"/>
+      <c r="C6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="11"/>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="11"/>
+      <c r="C8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="11"/>
+      <c r="C9" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="11"/>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="18"/>
-      <c r="C6" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="18"/>
-      <c r="C7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="18"/>
-      <c r="C8" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="18"/>
-      <c r="C9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="18"/>
-      <c r="C10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="5"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="18"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>6</v>
@@ -1021,15 +1031,15 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="18"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>9</v>
@@ -1037,8 +1047,8 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="15" t="s">
-        <v>81</v>
+      <c r="B13" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>1</v>
@@ -1047,397 +1057,423 @@
         <v>2</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>20</v>
+      <c r="G13" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="16"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="11"/>
+      <c r="C15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="11"/>
+      <c r="C16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F16" s="3"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="11"/>
+      <c r="C17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="11"/>
+      <c r="C18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="11"/>
+      <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="16"/>
-      <c r="C15" s="4" t="s">
+      <c r="F19" s="3"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="11"/>
+      <c r="C20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="11"/>
+      <c r="C21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="11"/>
+      <c r="C23" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="16"/>
-      <c r="C16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="16"/>
-      <c r="C17" s="4" t="s">
+      <c r="D23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="11"/>
+      <c r="C24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="11"/>
+      <c r="C25" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="11"/>
+      <c r="C26" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="11"/>
+      <c r="C27" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="16"/>
-      <c r="C18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="16"/>
-      <c r="C19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="16"/>
-      <c r="C20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="E27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="11"/>
+      <c r="C28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="11"/>
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="16"/>
-      <c r="C21" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="16"/>
-      <c r="C22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="16"/>
-      <c r="C23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="17"/>
-      <c r="C24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="18"/>
-      <c r="C26" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="18"/>
-      <c r="C27" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="14"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="18"/>
-      <c r="C28" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="14"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="18"/>
-      <c r="C29" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="14"/>
+      <c r="F29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="1"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="18"/>
-      <c r="C30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="1" t="s">
+      <c r="B30" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="11"/>
+      <c r="C31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="11"/>
+      <c r="C32" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="18"/>
-      <c r="C31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="12"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="6"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="13"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="6"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="7"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="11"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="8"/>
+      <c r="C34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="7"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="12"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="8"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="1"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="12"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="1"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="12"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="1"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="12"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="12"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="1"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="4"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B40" s="12"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="1"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="4"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B41" s="12"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B42" s="12"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="6"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B43" s="12"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="6"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B44" s="13"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="6"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B25:B31"/>
+  <mergeCells count="10">
+    <mergeCell ref="B30:B36"/>
+    <mergeCell ref="B22:B29"/>
     <mergeCell ref="B4:B12"/>
-    <mergeCell ref="B13:B24"/>
+    <mergeCell ref="B13:B21"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -1468,317 +1504,317 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="4">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="4">
+        <v>64</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C4" s="4">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="4">
+        <v>64</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="4">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="4">
+        <v>18</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="4">
+        <v>64</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="4">
+        <v>64</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="4">
+        <v>16</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="4">
+        <v>16</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="6">
+      <c r="B19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="4">
         <v>16</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="6" t="s">
+      <c r="D19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="B20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="11"/>
+      <c r="B22" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="6">
-        <v>64</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="6">
-        <v>16</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
-      <c r="B5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="6">
-        <v>64</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="6">
-        <v>16</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="6">
-        <v>18</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="6">
-        <v>64</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="6">
-        <v>64</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="6">
-        <v>16</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="6">
-        <v>16</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="6">
-        <v>16</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="6" t="s">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1811,35 +1847,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/giant_se/rsc/TABLE정보.xlsx
+++ b/giant_se/rsc/TABLE정보.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="111">
   <si>
     <t>컬럼명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -342,73 +342,114 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>auth_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPANY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmp_uid</t>
+  </si>
+  <si>
+    <t>cmp_uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>chp_uid</t>
+  </si>
+  <si>
+    <t>random</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>factory_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FACTORY_KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ftk_uid</t>
+  </si>
+  <si>
+    <t>ftk_uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(128)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmp_uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>factory_key_id</t>
-  </si>
-  <si>
-    <t>auth_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COMPANY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cmp_uid</t>
-  </si>
-  <si>
-    <t>cmp_uid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-  </si>
-  <si>
-    <t>chp_uid</t>
-  </si>
-  <si>
-    <t>PRI</t>
-  </si>
-  <si>
-    <t>random</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>factory_key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FACTORY_KEY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>company_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ftk_uid</t>
-  </si>
-  <si>
-    <t>ftk_uid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,7 +496,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -498,17 +539,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -521,7 +551,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -549,29 +579,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -856,19 +877,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:G41"/>
+  <dimension ref="B2:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="D22" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.5" style="16" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="9" customWidth="1"/>
     <col min="3" max="3" width="16.875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1" outlineLevel="1"/>
     <col min="5" max="5" width="29" customWidth="1" outlineLevel="2"/>
@@ -877,35 +898,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="11"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -925,7 +946,7 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="11"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
@@ -943,39 +964,39 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="11"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="3" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="10"/>
+      <c r="C7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="11"/>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="11"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>81</v>
@@ -987,9 +1008,9 @@
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="11"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>81</v>
@@ -1001,7 +1022,7 @@
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="11"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1015,7 +1036,7 @@
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="11"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1031,7 +1052,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="11"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1047,7 +1068,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>79</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1067,7 +1088,7 @@
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="11"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="2" t="s">
         <v>80</v>
       </c>
@@ -1085,23 +1106,21 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="11"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="7" t="s">
-        <v>92</v>
-      </c>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="11"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
@@ -1115,7 +1134,7 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="11"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="3" t="s">
         <v>24</v>
       </c>
@@ -1129,7 +1148,7 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="11"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="3" t="s">
         <v>26</v>
       </c>
@@ -1143,7 +1162,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="11"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="3" t="s">
         <v>7</v>
       </c>
@@ -1157,7 +1176,7 @@
       <c r="G19" s="7"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="11"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="3" t="s">
         <v>17</v>
       </c>
@@ -1173,7 +1192,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="11"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1189,8 +1208,8 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="11" t="s">
-        <v>84</v>
+      <c r="B22" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>1</v>
@@ -1209,9 +1228,9 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="11"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>4</v>
@@ -1227,12 +1246,12 @@
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="11"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>13</v>
@@ -1243,235 +1262,382 @@
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="11"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="7"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="4"/>
+      <c r="E26" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F26" s="3"/>
       <c r="G26" s="7"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="11"/>
+      <c r="B27" s="10"/>
       <c r="C27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
+        <v>102</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F27" s="3"/>
-      <c r="G27" s="7"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="11"/>
-      <c r="C28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>5</v>
+      <c r="B28" s="10"/>
+      <c r="C28" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G28" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="11"/>
-      <c r="C29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>27</v>
+      <c r="B29" s="10"/>
+      <c r="C29" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="1"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="7"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="11"/>
-      <c r="C31" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="1"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="11"/>
-      <c r="C32" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>98</v>
+      <c r="B32" s="10"/>
+      <c r="C32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="7" t="s">
+      <c r="F32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="11"/>
-      <c r="C33" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" s="3" t="s">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="10"/>
+      <c r="C34" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="10"/>
+      <c r="C35" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="10"/>
+      <c r="C36" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="11"/>
-      <c r="C34" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="7"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="11"/>
-      <c r="C35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="11"/>
-      <c r="C36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="3"/>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="10"/>
+      <c r="C37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="10"/>
+      <c r="C38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="10"/>
+      <c r="C39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="14"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="13"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="14"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="14"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="4"/>
+      <c r="G39" s="1"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B40" s="14"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="4"/>
+      <c r="B40" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B41" s="15"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="4"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="10"/>
+      <c r="C42" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="10"/>
+      <c r="C43" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="10"/>
+      <c r="C44" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="10"/>
+      <c r="C45" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="10"/>
+      <c r="C46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="10"/>
+      <c r="C47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48" s="10"/>
+      <c r="C48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B30:B36"/>
-    <mergeCell ref="B22:B29"/>
+  <mergeCells count="11">
+    <mergeCell ref="B40:B48"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="B22:B32"/>
     <mergeCell ref="B4:B12"/>
     <mergeCell ref="B13:B21"/>
     <mergeCell ref="G2:G3"/>
@@ -1521,7 +1687,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>67</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1536,7 +1702,7 @@
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="4" t="s">
         <v>62</v>
       </c>
@@ -1551,7 +1717,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1566,7 +1732,7 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="4" t="s">
         <v>62</v>
       </c>
@@ -1579,7 +1745,7 @@
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1594,7 +1760,7 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="4" t="s">
         <v>37</v>
       </c>
@@ -1609,7 +1775,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="4" t="s">
         <v>40</v>
       </c>
@@ -1624,7 +1790,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="6" t="s">
         <v>70</v>
       </c>
@@ -1635,7 +1801,7 @@
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
         <v>28</v>
       </c>
@@ -1648,7 +1814,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="4" t="s">
         <v>43</v>
       </c>
@@ -1661,7 +1827,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="4" t="s">
         <v>45</v>
       </c>
@@ -1676,7 +1842,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
         <v>47</v>
       </c>
@@ -1689,7 +1855,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="4" t="s">
         <v>49</v>
       </c>
@@ -1702,7 +1868,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>51</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1719,7 +1885,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="4" t="s">
         <v>52</v>
       </c>
@@ -1732,7 +1898,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>54</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1749,7 +1915,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="4" t="s">
         <v>55</v>
       </c>
@@ -1762,7 +1928,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>63</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -1779,7 +1945,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="4" t="s">
         <v>66</v>
       </c>
@@ -1792,7 +1958,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="4" t="s">
         <v>58</v>
       </c>
@@ -1805,7 +1971,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="4" t="s">
         <v>64</v>
       </c>

--- a/giant_se/rsc/TABLE정보.xlsx
+++ b/giant_se/rsc/TABLE정보.xlsx
@@ -400,56 +400,58 @@
   </si>
   <si>
     <t>ftk_uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(128)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmp_uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>factory_key_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ftk_uid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(128)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url_img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url_uid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>intent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>store</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cmp_uid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>factory_key_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -880,11 +882,11 @@
   <dimension ref="B2:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="F38" sqref="F38"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="2" x14ac:dyDescent="0.3"/>
@@ -1264,7 +1266,7 @@
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" s="3" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>4</v>
@@ -1292,7 +1294,7 @@
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="10"/>
       <c r="C27" s="3" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>27</v>
@@ -1306,10 +1308,10 @@
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="10"/>
       <c r="C28" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>14</v>
@@ -1320,10 +1322,10 @@
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="10"/>
       <c r="C29" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>14</v>
@@ -1400,7 +1402,7 @@
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="10"/>
       <c r="C34" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>4</v>
@@ -1418,7 +1420,7 @@
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="10"/>
       <c r="C35" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>96</v>
@@ -1493,7 +1495,7 @@
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>1</v>
@@ -1514,7 +1516,7 @@
     <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="10"/>
       <c r="C41" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>4</v>
@@ -1532,10 +1534,10 @@
     <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="10"/>
       <c r="C42" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>13</v>
@@ -1548,7 +1550,7 @@
     <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="10"/>
       <c r="C43" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>27</v>
@@ -1562,7 +1564,7 @@
     <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="10"/>
       <c r="C44" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>27</v>
@@ -1576,7 +1578,7 @@
     <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="10"/>
       <c r="C45" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>81</v>
